--- a/SpotifyLyricsErrors.xlsx
+++ b/SpotifyLyricsErrors.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Service</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>http://genius.com/G-Eazy-Him-&amp;-I-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/G-eazy-him-and-i-lyrics</t>
+  </si>
+  <si>
+    <t>"and" instead of "&amp;"</t>
+  </si>
+  <si>
+    <t>Him &amp; I</t>
+  </si>
+  <si>
+    <t>http://genius.com/Sushi-x-Kobe-Flasker-på-flasker-lyrics</t>
+  </si>
+  <si>
+    <t>https://genius.com/Sushi-x-kobe-flasker-pa-flasker-lyrics</t>
+  </si>
+  <si>
+    <t>"a" instead of "å"</t>
+  </si>
+  <si>
+    <t>Flasker på flasker</t>
   </si>
 </sst>
 </file>
@@ -440,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +475,7 @@
     <col min="1" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,6 +577,46 @@
       </c>
       <c r="F5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/SpotifyLyricsErrors.xlsx
+++ b/SpotifyLyricsErrors.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Service</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Attempted URL</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Don't shoot</t>
   </si>
   <si>
-    <t>When ya on (feat. Nipsey Hussle)</t>
-  </si>
-  <si>
     <t>"o" instead of "ö"</t>
   </si>
   <si>
@@ -118,6 +112,54 @@
   </si>
   <si>
     <t>Flasker på flasker</t>
+  </si>
+  <si>
+    <t>http://genius.com/Vic-Mensa-There's-Alot-Going-On-lyrics</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Vidar Villa</t>
+  </si>
+  <si>
+    <t>Når Sola Står Opp</t>
+  </si>
+  <si>
+    <t>When Ya On</t>
+  </si>
+  <si>
+    <t>Chamillionaire</t>
+  </si>
+  <si>
+    <t>Never ever</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Sushi x Kobe</t>
+  </si>
+  <si>
+    <t>G-Eazy</t>
+  </si>
+  <si>
+    <t>https://genius.com/Vidar-villa-nar-sola-star-opp-lyrics</t>
+  </si>
+  <si>
+    <t>http://genius.com/Vidar-Villa-Når-Sola-Står-Opp-lyrics</t>
+  </si>
+  <si>
+    <t>Vic Mensa</t>
+  </si>
+  <si>
+    <t>There's A lot Going On</t>
+  </si>
+  <si>
+    <t>https://genius.com/Vic-mensa-theres-alot-going-on-lyrics</t>
   </si>
 </sst>
 </file>
@@ -464,168 +506,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="3" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:G1"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="120" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
